--- a/cos/variosbuffers.xlsx
+++ b/cos/variosbuffers.xlsx
@@ -658,22 +658,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -940,22 +940,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -1128,22 +1128,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -1269,22 +1269,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -1363,22 +1363,22 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -1457,22 +1457,22 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -1692,22 +1692,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -1786,22 +1786,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -1974,22 +1974,22 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -2162,22 +2162,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -2209,22 +2209,22 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -2256,22 +2256,22 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -2397,22 +2397,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -2538,22 +2538,22 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>
@@ -2585,22 +2585,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Transporte</t>
         </is>
       </c>
     </row>

--- a/cos/variosbuffers.xlsx
+++ b/cos/variosbuffers.xlsx
@@ -1974,22 +1974,22 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
     </row>
@@ -2162,22 +2162,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Outros</t>
         </is>
       </c>
     </row>
@@ -2397,22 +2397,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
     </row>

--- a/cos/variosbuffers.xlsx
+++ b/cos/variosbuffers.xlsx
@@ -1363,22 +1363,22 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Outros</t>
         </is>
       </c>
     </row>
@@ -1786,22 +1786,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
     </row>
@@ -2209,22 +2209,22 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
     </row>
@@ -2256,22 +2256,22 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
     </row>
@@ -2538,22 +2538,22 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
     </row>
@@ -2585,22 +2585,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Transporte</t>
+          <t>Urbanizado</t>
         </is>
       </c>
     </row>

--- a/cos/variosbuffers.xlsx
+++ b/cos/variosbuffers.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,45 +445,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>3763_long</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>3763_lat</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Estacao id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Estacao</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>pm10</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>pm10_weighted</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Uso_solo_simplificado</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Uso_solo_simplificado_250m</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Uso_solo_simplificado_500m</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Uso_solo_simplificado_750m</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Uso_solo_simplificado_1000m</t>
         </is>
@@ -497,29 +507,25 @@
         <v>43271</v>
       </c>
       <c r="C2" t="n">
+        <v>-41240.98379323598</v>
+      </c>
+      <c r="D2" t="n">
+        <v>147938.0050598391</v>
+      </c>
+      <c r="E2" t="n">
         <v>1054</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Anta-Espinho</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>13.68181818181818</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>20.64603079546817</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -531,6 +537,16 @@
         </is>
       </c>
       <c r="K2" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -544,29 +560,25 @@
         <v>43271</v>
       </c>
       <c r="C3" t="n">
+        <v>-66272.45263627032</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-126138.6028363526</v>
+      </c>
+      <c r="E3" t="n">
         <v>3093</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Arcos</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>36.49166666666667</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>32.93764130559803</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Urbanizado</t>
@@ -578,6 +590,16 @@
         </is>
       </c>
       <c r="K3" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -591,32 +613,28 @@
         <v>43271</v>
       </c>
       <c r="C4" t="n">
+        <v>-43558.43466270123</v>
+      </c>
+      <c r="D4" t="n">
+        <v>107718.4020588042</v>
+      </c>
+      <c r="E4" t="n">
         <v>2017</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Aveiro</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>27.125</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>18.85869837746607</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -625,6 +643,16 @@
         </is>
       </c>
       <c r="K4" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -638,40 +666,46 @@
         <v>43271</v>
       </c>
       <c r="C5" t="n">
+        <v>-88100.74996332327</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-104660.1003179846</v>
+      </c>
+      <c r="E5" t="n">
         <v>3075</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Avenida da Liberdade</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>48.41666666666666</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>32.89084930364226</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
@@ -685,29 +719,25 @@
         <v>43271</v>
       </c>
       <c r="C6" t="n">
+        <v>-35388.72693303043</v>
+      </c>
+      <c r="D6" t="n">
+        <v>158867.6773189802</v>
+      </c>
+      <c r="E6" t="n">
         <v>1053</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Avintes</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>27.2</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>21.89124717822572</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -719,6 +749,16 @@
         </is>
       </c>
       <c r="K6" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -732,29 +772,25 @@
         <v>43271</v>
       </c>
       <c r="C7" t="n">
+        <v>-27403.9492883257</v>
+      </c>
+      <c r="D7" t="n">
+        <v>187227.2855117856</v>
+      </c>
+      <c r="E7" t="n">
         <v>1052</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Burgães-Santo Tirso</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>24.45454545454545</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>18.73569299496276</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -766,6 +802,16 @@
         </is>
       </c>
       <c r="K7" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -779,32 +825,28 @@
         <v>43271</v>
       </c>
       <c r="C8" t="n">
+        <v>-112752.9673229535</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-106543.0458416694</v>
+      </c>
+      <c r="E8" t="n">
         <v>3104</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Cascais - Escola da Cidadela</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>41.12380952380953</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>28.20358804427715</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -813,6 +855,16 @@
         </is>
       </c>
       <c r="K8" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -826,29 +878,25 @@
         <v>43271</v>
       </c>
       <c r="C9" t="n">
+        <v>40289.51717425437</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-261406.0043309593</v>
+      </c>
+      <c r="E9" t="n">
         <v>5012</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>14.45833333333333</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>16.79738220759935</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -860,6 +908,16 @@
         </is>
       </c>
       <c r="K9" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -873,32 +931,28 @@
         <v>43271</v>
       </c>
       <c r="C10" t="n">
+        <v>-28813.71500864098</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-34827.53944008095</v>
+      </c>
+      <c r="E10" t="n">
         <v>3096</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Chamusca</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>29.04583333333333</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>23.06041636353474</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -907,6 +961,16 @@
         </is>
       </c>
       <c r="K10" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -920,40 +984,46 @@
         <v>43271</v>
       </c>
       <c r="C11" t="n">
+        <v>-25706.74868057218</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60705.52823479236</v>
+      </c>
+      <c r="E11" t="n">
         <v>2006</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Coimbra/ Avenida Fernão Magalhães</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>37.58333333333334</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>24.21703155113064</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
@@ -967,32 +1037,28 @@
         <v>43271</v>
       </c>
       <c r="C12" t="n">
+        <v>-13646.36265228279</v>
+      </c>
+      <c r="D12" t="n">
+        <v>197834.0127053966</v>
+      </c>
+      <c r="E12" t="n">
         <v>1046</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Cónego Dr. Manuel Faria-Azurém</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>18.83333333333333</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>15.45705537044591</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1001,6 +1067,16 @@
         </is>
       </c>
       <c r="K12" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -1014,29 +1090,25 @@
         <v>43271</v>
       </c>
       <c r="C13" t="n">
+        <v>-36349.8996733779</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-280753.8965851989</v>
+      </c>
+      <c r="E13" t="n">
         <v>5011</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>David Neto</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>38.29166666666666</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>29.74194464589739</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>Urbanizado</t>
@@ -1048,6 +1120,16 @@
         </is>
       </c>
       <c r="K13" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -1061,29 +1143,25 @@
         <v>43271</v>
       </c>
       <c r="C14" t="n">
+        <v>28635.95884533177</v>
+      </c>
+      <c r="D14" t="n">
+        <v>189170.9787543955</v>
+      </c>
+      <c r="E14" t="n">
         <v>1048</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Douro Norte</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>10.75</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>9.911897496874564</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -1095,6 +1173,16 @@
         </is>
       </c>
       <c r="K14" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -1108,40 +1196,46 @@
         <v>43271</v>
       </c>
       <c r="C15" t="n">
+        <v>-88315.70665058788</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-101613.5563501885</v>
+      </c>
+      <c r="E15" t="n">
         <v>3072</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Entrecampos</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>40.19583333333333</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>31.7736527854409</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
@@ -1155,29 +1249,25 @@
         <v>43271</v>
       </c>
       <c r="C16" t="n">
+        <v>-35183.61156174825</v>
+      </c>
+      <c r="D16" t="n">
+        <v>170907.5738444125</v>
+      </c>
+      <c r="E16" t="n">
         <v>1023</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Ermesinde-Valongo</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>27.20833333333333</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>22.68205445900004</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>Urbanizado</t>
@@ -1189,6 +1279,16 @@
         </is>
       </c>
       <c r="K16" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -1202,29 +1302,25 @@
         <v>43271</v>
       </c>
       <c r="C17" t="n">
+        <v>-64956.52551082154</v>
+      </c>
+      <c r="D17" t="n">
+        <v>28737.67628863895</v>
+      </c>
+      <c r="E17" t="n">
         <v>2019</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Ervedeira</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>31.45833333333333</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>25.17787668475592</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -1236,6 +1332,16 @@
         </is>
       </c>
       <c r="K17" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -1249,40 +1355,46 @@
         <v>43271</v>
       </c>
       <c r="C18" t="n">
+        <v>-81372.6836666842</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-111421.3437174443</v>
+      </c>
+      <c r="E18" t="n">
         <v>3095</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Escavadeira</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>35.2875</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>33.82417065389357</v>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
@@ -1296,29 +1408,25 @@
         <v>43271</v>
       </c>
       <c r="C19" t="n">
+        <v>-36651.84012050802</v>
+      </c>
+      <c r="D19" t="n">
+        <v>121155.5876622568</v>
+      </c>
+      <c r="E19" t="n">
         <v>2004</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Estarreja</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>17.89473684210526</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>18.94870887804427</v>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -1330,6 +1438,16 @@
         </is>
       </c>
       <c r="K19" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -1343,29 +1461,25 @@
         <v>43271</v>
       </c>
       <c r="C20" t="n">
+        <v>-48640.1828791037</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-114310.1729534447</v>
+      </c>
+      <c r="E20" t="n">
         <v>3099</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Fernando Pó</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>38.3375</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>28.03150538351018</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -1377,6 +1491,16 @@
         </is>
       </c>
       <c r="K20" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -1390,29 +1514,25 @@
         <v>43271</v>
       </c>
       <c r="C21" t="n">
+        <v>2800.082843977328</v>
+      </c>
+      <c r="D21" t="n">
+        <v>108354.6833078669</v>
+      </c>
+      <c r="E21" t="n">
         <v>2021</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Fornelo do Monte</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>14.47368421052632</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>14.67341021479265</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -1424,6 +1544,16 @@
         </is>
       </c>
       <c r="K21" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -1437,40 +1567,46 @@
         <v>43271</v>
       </c>
       <c r="C22" t="n">
+        <v>-38417.07184248177</v>
+      </c>
+      <c r="D22" t="n">
+        <v>166057.8584131754</v>
+      </c>
+      <c r="E22" t="n">
         <v>1028</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Francisco Sá Carneiro-Campanha</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>17.22727272727273</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>23.03242851249266</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
@@ -1484,29 +1620,25 @@
         <v>43271</v>
       </c>
       <c r="C23" t="n">
+        <v>-27011.71508521114</v>
+      </c>
+      <c r="D23" t="n">
+        <v>211176.0104735445</v>
+      </c>
+      <c r="E23" t="n">
         <v>1042</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Frossos-Braga</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>10.08333333333333</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>15.10060868609654</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -1514,10 +1646,20 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -1531,29 +1673,25 @@
         <v>43271</v>
       </c>
       <c r="C24" t="n">
+        <v>70935.36005037882</v>
+      </c>
+      <c r="D24" t="n">
+        <v>63045.40048538535</v>
+      </c>
+      <c r="E24" t="n">
         <v>2020</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Fundão</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>18.41666666666667</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>14.6387783591567</v>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -1565,6 +1703,16 @@
         </is>
       </c>
       <c r="K24" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -1578,29 +1726,25 @@
         <v>43271</v>
       </c>
       <c r="C25" t="n">
+        <v>-45621.89032152404</v>
+      </c>
+      <c r="D25" t="n">
+        <v>102590.1969691089</v>
+      </c>
+      <c r="E25" t="n">
         <v>2018</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Ílhavo</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>32.83333333333334</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>18.55732009616839</v>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -1612,6 +1756,16 @@
         </is>
       </c>
       <c r="K25" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -1625,32 +1779,28 @@
         <v>43271</v>
       </c>
       <c r="C26" t="n">
+        <v>-23757.20026268262</v>
+      </c>
+      <c r="D26" t="n">
+        <v>60019.13636161671</v>
+      </c>
+      <c r="E26" t="n">
         <v>2016</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Instituto Geofísico de Coimbra</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>28.45833333333333</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>24.40424949410358</v>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1659,6 +1809,16 @@
         </is>
       </c>
       <c r="K26" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -1672,40 +1832,46 @@
         <v>43271</v>
       </c>
       <c r="C27" t="n">
+        <v>-44459.38968440656</v>
+      </c>
+      <c r="D27" t="n">
+        <v>168671.8798665049</v>
+      </c>
+      <c r="E27" t="n">
         <v>1030</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>João Gomes Laranjo-S.Hora</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
         <v>27.28571428571428</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>23.26173016194345</v>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>Transporte</t>
         </is>
@@ -1719,32 +1885,28 @@
         <v>43271</v>
       </c>
       <c r="C28" t="n">
+        <v>18372.0889688789</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-294499.7055014788</v>
+      </c>
+      <c r="E28" t="n">
         <v>5007</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Joaquim Magalhães</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>30.44166666666667</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>27.02458913103547</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1753,6 +1915,16 @@
         </is>
       </c>
       <c r="K28" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -1766,32 +1938,28 @@
         <v>43271</v>
       </c>
       <c r="C29" t="n">
+        <v>-89171.41023677563</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-111050.5821180434</v>
+      </c>
+      <c r="E29" t="n">
         <v>3083</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Laranjeiro</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>38.62916666666667</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>32.97233577505904</v>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1800,6 +1968,16 @@
         </is>
       </c>
       <c r="K29" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -1813,29 +1991,25 @@
         <v>43271</v>
       </c>
       <c r="C30" t="n">
+        <v>-79666.82331478485</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-110615.535824162</v>
+      </c>
+      <c r="E30" t="n">
         <v>3055</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Lavradio</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="G30" t="n">
         <v>39.97916666666666</v>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
         <v>33.6246065931518</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>Urbanizado</t>
@@ -1847,6 +2021,16 @@
         </is>
       </c>
       <c r="K30" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -1860,29 +2044,25 @@
         <v>43271</v>
       </c>
       <c r="C31" t="n">
+        <v>-89565.78735214358</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-92599.20116346177</v>
+      </c>
+      <c r="E31" t="n">
         <v>3085</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Loures-Centro</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
         <v>25.6375</v>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>27.97678762543504</v>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -1890,10 +2070,20 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -1907,32 +2097,28 @@
         <v>43271</v>
       </c>
       <c r="C32" t="n">
+        <v>-96115.9370233228</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-42518.17937972415</v>
+      </c>
+      <c r="E32" t="n">
         <v>3102</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Lourinhã</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>25.84583333333333</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>25.45935860930451</v>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1941,6 +2127,16 @@
         </is>
       </c>
       <c r="K32" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -1954,29 +2150,25 @@
         <v>43271</v>
       </c>
       <c r="C33" t="n">
+        <v>-10367.50548500558</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-286004.8689279474</v>
+      </c>
+      <c r="E33" t="n">
         <v>5008</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Malpique</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="G33" t="n">
         <v>43.41666666666666</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>29.89094651229147</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>Urbanizado</t>
@@ -1988,6 +2180,16 @@
         </is>
       </c>
       <c r="K33" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -2001,32 +2203,28 @@
         <v>43271</v>
       </c>
       <c r="C34" t="n">
+        <v>-48625.38359926796</v>
+      </c>
+      <c r="D34" t="n">
+        <v>173843.5768246099</v>
+      </c>
+      <c r="E34" t="n">
         <v>1025</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Meco-Perafita</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="G34" t="n">
         <v>20.25</v>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>22.66369613285387</v>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Urbanizado</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2035,6 +2233,16 @@
         </is>
       </c>
       <c r="K34" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -2048,29 +2256,25 @@
         <v>43271</v>
       </c>
       <c r="C35" t="n">
+        <v>-105605.5783548283</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-97194.26695687171</v>
+      </c>
+      <c r="E35" t="n">
         <v>3089</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Mem Martins</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
         <v>27.72083333333333</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>26.55954726445246</v>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>Urbanizado</t>
@@ -2082,6 +2286,16 @@
         </is>
       </c>
       <c r="K35" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -2095,29 +2309,25 @@
         <v>43271</v>
       </c>
       <c r="C36" t="n">
+        <v>-49218.58775434551</v>
+      </c>
+      <c r="D36" t="n">
+        <v>182292.3852031552</v>
+      </c>
+      <c r="E36" t="n">
         <v>1051</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Mindelo-Vila do Conde</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="G36" t="n">
         <v>16.58333333333333</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>21.24585750058139</v>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -2129,6 +2339,16 @@
         </is>
       </c>
       <c r="K36" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -2142,29 +2362,25 @@
         <v>43271</v>
       </c>
       <c r="C37" t="n">
+        <v>-45617.3383066796</v>
+      </c>
+      <c r="D37" t="n">
+        <v>59423.25160959856</v>
+      </c>
+      <c r="E37" t="n">
         <v>2022</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Montemor-o-Velho</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="G37" t="n">
         <v>28.625</v>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>25.25524961832934</v>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -2176,6 +2392,16 @@
         </is>
       </c>
       <c r="K37" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -2189,32 +2415,28 @@
         <v>43271</v>
       </c>
       <c r="C38" t="n">
+        <v>-91234.92545238844</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-95463.65016965409</v>
+      </c>
+      <c r="E38" t="n">
         <v>3097</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Odivelas-Ramada</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>43.25416666666666</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>28.63738323879013</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,6 +2445,16 @@
         </is>
       </c>
       <c r="K38" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -2236,32 +2468,28 @@
         <v>43271</v>
       </c>
       <c r="C39" t="n">
+        <v>-84663.70417772795</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-99297.70340514423</v>
+      </c>
+      <c r="E39" t="n">
         <v>3071</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Olivais</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="G39" t="n">
         <v>36.34166666666667</v>
       </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
         <v>31.03275876896798</v>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2270,6 +2498,16 @@
         </is>
       </c>
       <c r="K39" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -2283,40 +2521,46 @@
         <v>43271</v>
       </c>
       <c r="C40" t="n">
+        <v>-20338.95193150245</v>
+      </c>
+      <c r="D40" t="n">
+        <v>178346.931984557</v>
+      </c>
+      <c r="E40" t="n">
         <v>1044</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Paços de Ferreira</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="G40" t="n">
         <v>27.79166666666667</v>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>18.62189344545493</v>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -2330,29 +2574,25 @@
         <v>43271</v>
       </c>
       <c r="C41" t="n">
+        <v>-82644.30700047665</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-115839.1324620537</v>
+      </c>
+      <c r="E41" t="n">
         <v>3063</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Paio Pires</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
         <v>38.65833333333333</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>33.57066858262246</v>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>Urbanizado</t>
@@ -2364,6 +2604,16 @@
         </is>
       </c>
       <c r="K41" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -2377,29 +2627,25 @@
         <v>43271</v>
       </c>
       <c r="C42" t="n">
+        <v>-17191.3216126775</v>
+      </c>
+      <c r="D42" t="n">
+        <v>170935.1598453979</v>
+      </c>
+      <c r="E42" t="n">
         <v>1043</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Pe Moreira Neves-Castelões de Cepeda</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="G42" t="n">
         <v>7</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>18.08886559205197</v>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>Urbanizado</t>
@@ -2411,6 +2657,16 @@
         </is>
       </c>
       <c r="K42" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -2424,29 +2680,25 @@
         <v>43271</v>
       </c>
       <c r="C43" t="n">
+        <v>-65679.59472312924</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-126634.1711313672</v>
+      </c>
+      <c r="E43" t="n">
         <v>3094</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Quebedo</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="G43" t="n">
         <v>39.85833333333333</v>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>33.01948570155671</v>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>Urbanizado</t>
@@ -2458,6 +2710,16 @@
         </is>
       </c>
       <c r="K43" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -2471,29 +2733,25 @@
         <v>43271</v>
       </c>
       <c r="C44" t="n">
+        <v>-103468.263840127</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-107008.9732109705</v>
+      </c>
+      <c r="E44" t="n">
         <v>3091</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Quinta do Marquês</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="G44" t="n">
         <v>28.62916666666667</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>29.65253984794291</v>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -2505,6 +2763,16 @@
         </is>
       </c>
       <c r="K44" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -2518,32 +2786,28 @@
         <v>43271</v>
       </c>
       <c r="C45" t="n">
+        <v>-95349.98688683084</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-100835.0974849642</v>
+      </c>
+      <c r="E45" t="n">
         <v>3084</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Reboleira</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="G45" t="n">
         <v>31.62083333333333</v>
       </c>
-      <c r="F45" t="n">
+      <c r="H45" t="n">
         <v>29.48644693160862</v>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2552,6 +2816,16 @@
         </is>
       </c>
       <c r="K45" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -2565,32 +2839,28 @@
         <v>43271</v>
       </c>
       <c r="C46" t="n">
+        <v>-45229.61107704999</v>
+      </c>
+      <c r="D46" t="n">
+        <v>168888.1855759922</v>
+      </c>
+      <c r="E46" t="n">
         <v>1055</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Seara-Matosinhos</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="G46" t="n">
         <v>25</v>
       </c>
-      <c r="F46" t="n">
+      <c r="H46" t="n">
         <v>23.30881037668967</v>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2599,6 +2869,16 @@
         </is>
       </c>
       <c r="K46" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
@@ -2612,29 +2892,25 @@
         <v>43271</v>
       </c>
       <c r="C47" t="n">
+        <v>-51987.88061520166</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-199371.392016597</v>
+      </c>
+      <c r="E47" t="n">
         <v>4003</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Sonega</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="G47" t="n">
         <v>19.29166666666667</v>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>24.91582792010203</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -2646,6 +2922,16 @@
         </is>
       </c>
       <c r="K47" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -2659,29 +2945,25 @@
         <v>43271</v>
       </c>
       <c r="C48" t="n">
+        <v>63944.8494208218</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-116479.9707796853</v>
+      </c>
+      <c r="E48" t="n">
         <v>4006</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Terena</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="G48" t="n">
         <v>25.33333333333333</v>
       </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
         <v>22.57544372407552</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>Outros</t>
@@ -2693,6 +2975,16 @@
         </is>
       </c>
       <c r="K48" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>Outros</t>
         </is>
@@ -2706,32 +2998,28 @@
         <v>43271</v>
       </c>
       <c r="C49" t="n">
+        <v>-44201.63639316942</v>
+      </c>
+      <c r="D49" t="n">
+        <v>176032.116001857</v>
+      </c>
+      <c r="E49" t="n">
         <v>1031</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>VNTelha-Maia</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="G49" t="n">
         <v>25.70588235294118</v>
       </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
         <v>22.30368022065842</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Urbanizado</t>
-        </is>
-      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Urbanizado</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2740,6 +3028,16 @@
         </is>
       </c>
       <c r="K49" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Urbanizado</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>Urbanizado</t>
         </is>
